--- a/プロンプト・テンプレート.xlsx
+++ b/プロンプト・テンプレート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/altair/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E1D5B6-CAF8-9A43-8B71-1C27D9E7E95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE488DD7-CEBF-AC42-B2F6-72A0B83C0EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2020" windowWidth="44800" windowHeight="23660" xr2:uid="{1CC88385-4563-AD45-BAB0-1AA22C7E4F19}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>プロンプト</t>
     <phoneticPr fontId="1"/>
@@ -149,6 +149,26 @@
     <rPh sb="240" eb="242">
       <t xml:space="preserve">ツイカ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡易版</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">カンイバン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># ルール
+– 日本語で回答してください。
+– ドキュメント類を作成する場合はUTF-8の文字コードにしてください。
+– わからない/未確認は「わからない」と明言すること
+– 推測は「推測ですが」と明示すること
+– 現在日付（YYYY-MM-DD JST）を必ず明記すること
+– 根拠/出典（可能なら一次情報）を必ず添付すること
+– 専門的知見が必要な場合は「専門家に確認が」と明記すること
+– 出典元はタイトルとURLを表記すること
+– 出力：【結論】【根拠】【注意点・例外】【出典】【確実性: 高/中/低】</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -558,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1BB457-EEB2-6542-8251-3CF6B7E456A0}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -603,6 +623,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:4" ht="190">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
